--- a/BMU_Points.xlsx
+++ b/BMU_Points.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Maier, Christopher</t>
-  </si>
-  <si>
-    <t>Stubbs, Brian</t>
-  </si>
-  <si>
     <t>Updated</t>
   </si>
   <si>
@@ -64,7 +58,16 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>Riley, Cordero</t>
+    <t>Dingle, Derp</t>
+  </si>
+  <si>
+    <t>Tweedle, Dee</t>
+  </si>
+  <si>
+    <t>Ship, Lee</t>
+  </si>
+  <si>
+    <t>Shmo, Joe</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -396,39 +399,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
-        <v>161388</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>IF($D$2="","",IF($D$2=0,"PHD",IF($D$2=1,"Red",IF($D$2=2,"Red",IF($D$2=3,"Red",IF($D$2=4,"Orange",IF($D$2=5,"Orange",IF($D$2=6,"Orange",IF($D$2=7,"Yellow",IF($D$2=8,"Yellow",IF($D$2=9,"Yellow",IF($D$2=10,"Green",IF($D$2=11,"Green",IF($D$2=12,"Green",IF($D$2=13,"Blue",IF($D$2=14,"Blue",IF($D$2=15,"Blue","EMPTY")))))))))))))))))</f>
-        <v>Orange</v>
+        <v>Yellow</v>
       </c>
       <c r="D2" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>44516</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
-        <v>196716</v>
+        <v>12346</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>IF($D$3="","",IF($D$3=0,"PHD",IF($D$3=1,"Red",IF($D$3=2,"Red",IF($D$3=3,"Red",IF($D$3=4,"Orange",IF($D$3=5,"Orange",IF($D$3=6,"Orange",IF($D$3=7,"Yellow",IF($D$3=8,"Yellow",IF($D$3=9,"Yellow",IF($D$3=10,"Green",IF($D$3=11,"Green",IF($D$3=12,"Green",IF($D$3=13,"Blue",IF($D$3=14,"Blue",IF($D$3=15,"Blue","EMPTY")))))))))))))))))</f>
@@ -441,7 +444,7 @@
         <v>44516</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -449,32 +452,42 @@
         <v>14</v>
       </c>
       <c r="B4" s="7">
-        <v>158950</v>
+        <v>12347</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>IF($D$4="","",IF($D$4=0,"PHD",IF($D$4=1,"Red",IF($D$4=2,"Red",IF($D$4=3,"Red",IF($D$4=4,"Orange",IF($D$4=5,"Orange",IF($D$4=6,"Orange",IF($D$4=7,"Yellow",IF($D$4=8,"Yellow",IF($D$4=9,"Yellow",IF($D$4=10,"Green",IF($D$4=11,"Green",IF($D$4=12,"Green",IF($D$4=13,"Blue",IF($D$4=14,"Blue",IF($D$4=15,"Blue","EMPTY")))))))))))))))))</f>
-        <v>PHD</v>
+        <v>Red</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>44516</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12348</v>
+      </c>
       <c r="C5" s="6" t="str">
         <f>IF($D$5="","",IF($D$5=0,"PHD",IF($D$5=1,"Red",IF($D$5=2,"Red",IF($D$5=3,"Red",IF($D$5=4,"Orange",IF($D$5=5,"Orange",IF($D$5=6,"Orange",IF($D$5=7,"Yellow",IF($D$5=8,"Yellow",IF($D$5=9,"Yellow",IF($D$5=10,"Green",IF($D$5=11,"Green",IF($D$5=12,"Green",IF($D$5=13,"Blue",IF($D$5=14,"Blue",IF($D$5=15,"Blue","EMPTY")))))))))))))))))</f>
-        <v/>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>Green</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44516</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -621,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -629,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -637,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -661,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -669,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -677,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -685,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -693,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -709,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -733,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
